--- a/data/trans_camb/P1423_2016_2023-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1423_2016_2023-Provincia-trans_camb.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-1.935359124109133</v>
+        <v>-1.935359124109132</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>-5.174679471975272</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.856878424830238</v>
+        <v>-4.764285779246415</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.806565054102887</v>
+        <v>-9.475753738088942</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.918483646183279</v>
+        <v>-6.151375294023944</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3043552066424003</v>
+        <v>0.4182720151050278</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.700513334797713</v>
+        <v>-1.499059342061704</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.374440850879683</v>
+        <v>-1.332249633417093</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.5487051748588668</v>
+        <v>-0.5487051748588667</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.5775545453375601</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8535231136630054</v>
+        <v>-0.8603321136667983</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7806525494922784</v>
+        <v>-0.765252489393233</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7372300528562782</v>
+        <v>-0.7298019783293865</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3866684862005231</v>
+        <v>0.4901250000954751</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2684834181497547</v>
+        <v>-0.229039525563073</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2787925926168439</v>
+        <v>-0.2701622296855015</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4.303442644641208</v>
+        <v>4.303442644641209</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>6.059877078996352</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.113433153946255</v>
+        <v>2.186250314600434</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.272860174510229</v>
+        <v>3.247341685104753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.255735695861548</v>
+        <v>3.432586365190374</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.080475405867361</v>
+        <v>6.962236769150554</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.858938460532388</v>
+        <v>9.259691475309241</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.068851822257005</v>
+        <v>7.344929165068903</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>3.476948142161022</v>
+        <v>3.476948142161023</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.258192640471882</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.6969555117614895</v>
+        <v>0.7574054399694551</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4700345169020773</v>
+        <v>0.4715105835584261</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8014776224400331</v>
+        <v>0.8524058595096945</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11.10783894547842</v>
+        <v>9.903572012729077</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.559039197439715</v>
+        <v>2.74001154629268</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.099871651633312</v>
+        <v>3.157235376483963</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.764411204089778</v>
+        <v>4.721170463148808</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.423787714158234</v>
+        <v>1.577940161453158</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.267015472583784</v>
+        <v>3.9324389821263</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.69535934219661</v>
+        <v>10.73248544114207</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.631367093811885</v>
+        <v>8.817035414108085</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.825253766395134</v>
+        <v>8.535000119218362</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>1.027397626445403</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.224088427705906</v>
+        <v>2.224088427705905</v>
       </c>
     </row>
     <row r="20">
@@ -845,10 +845,10 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>0.1508729132782685</v>
+        <v>0.1597842408859126</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.981217089326975</v>
+        <v>0.9526015864248717</v>
       </c>
     </row>
     <row r="21">
@@ -860,10 +860,10 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>2.615892941593023</v>
+        <v>2.769965109380299</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.839015371602692</v>
+        <v>4.275351006096257</v>
       </c>
     </row>
     <row r="22">
@@ -881,7 +881,7 @@
         <v>3.014856038954202</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8804117080438087</v>
+        <v>0.8804117080438094</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>1.936134918508438</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.330552191855163</v>
+        <v>0.4141986275041306</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.010657374276375</v>
+        <v>-2.046261754874286</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.08337396444513384</v>
+        <v>0.089883770002053</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.156113265019858</v>
+        <v>6.169979786640417</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.618443829575055</v>
+        <v>3.510690116504148</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.946619868996831</v>
+        <v>4.280941254026304</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         <v>1.531826794546404</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.185115771058004</v>
+        <v>0.1851157710580042</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.5704655860624462</v>
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.04239264791891211</v>
+        <v>-0.02359657508011345</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3274586639577023</v>
+        <v>-0.3224145661718671</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0256073808045425</v>
+        <v>0.01097719322902264</v>
       </c>
     </row>
     <row r="27">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.883985189555023</v>
+        <v>5.873219331631784</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.142698039233088</v>
+        <v>1.130066236151201</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.622006448145054</v>
+        <v>1.784804752994501</v>
       </c>
     </row>
     <row r="28">
@@ -987,7 +987,7 @@
         <v>-2.098091507389792</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-5.498122666040823</v>
+        <v>-5.498122666040824</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-3.776970997191877</v>
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.345626880960136</v>
+        <v>-5.480461010544706</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.24511795533411</v>
+        <v>-10.32423397255896</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.557497333283208</v>
+        <v>-6.63157331101312</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3107690051017489</v>
+        <v>0.4120956942430669</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.673081442231191</v>
+        <v>-1.364878559085003</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.176444914101915</v>
+        <v>-1.441799121813541</v>
       </c>
     </row>
     <row r="31">
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9100255886512915</v>
+        <v>-0.9044594593482744</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7480457192778256</v>
+        <v>-0.7440474854896447</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7262199596162225</v>
+        <v>-0.7330366892402442</v>
       </c>
     </row>
     <row r="33">
@@ -1069,13 +1069,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.308201156068933</v>
+        <v>0.4218217295856642</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2134359097543387</v>
+        <v>-0.1957362837277287</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2182879360197662</v>
+        <v>-0.265200086842279</v>
       </c>
     </row>
     <row r="34">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.217466470164442</v>
+        <v>3.249827262542789</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.477547512943525</v>
+        <v>-5.370648860194088</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.2462632026865384</v>
+        <v>-0.1860031448107274</v>
       </c>
     </row>
     <row r="36">
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.141358350933029</v>
+        <v>9.51532631109769</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.200129403914442</v>
+        <v>3.11891566032514</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.129799437857778</v>
+        <v>5.1720176406065</v>
       </c>
     </row>
     <row r="37">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.8746231593201654</v>
+        <v>0.8276583473141889</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4444427544721241</v>
+        <v>-0.426031053015846</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.03935429841501933</v>
+        <v>-0.03148498562506782</v>
       </c>
     </row>
     <row r="39">
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>16.71977375467277</v>
+        <v>19.49159213270406</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4510069335556102</v>
+        <v>0.4868236147069316</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.29593858098362</v>
+        <v>1.305915514473288</v>
       </c>
     </row>
     <row r="40">
@@ -1202,7 +1202,7 @@
         <v>3.192322588196529</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.766852857718803</v>
+        <v>3.766852857718802</v>
       </c>
     </row>
     <row r="41">
@@ -1213,13 +1213,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.309366742042232</v>
+        <v>2.193547767630072</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.4670652023665202</v>
+        <v>0.5104970705724206</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.986786966411767</v>
+        <v>2.045836950334535</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.894697284945273</v>
+        <v>6.844350745506551</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.849090930368058</v>
+        <v>5.934262863672476</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.479754235517672</v>
+        <v>5.609275734412384</v>
       </c>
     </row>
     <row r="43">
@@ -1253,7 +1253,7 @@
         <v>0.5056498712903864</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.9227823628576537</v>
+        <v>0.9227823628576534</v>
       </c>
     </row>
     <row r="44">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.7302557234811263</v>
+        <v>0.6405272024598132</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.03895065089372172</v>
+        <v>0.06107499974524551</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3911270160892835</v>
+        <v>0.3912912067513908</v>
       </c>
     </row>
     <row r="45">
@@ -1281,13 +1281,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>6.476639162886876</v>
+        <v>6.578738280494335</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.179003480782923</v>
+        <v>1.274272469842996</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.689071650703348</v>
+        <v>1.693822155326948</v>
       </c>
     </row>
     <row r="46">
@@ -1305,10 +1305,10 @@
         <v>0.2036719628469089</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.3138371261097408</v>
+        <v>0.3138371261097422</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.2360318610279355</v>
+        <v>0.2360318610279369</v>
       </c>
     </row>
     <row r="47">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.469910560391572</v>
+        <v>-1.476213472899024</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.178027329477292</v>
+        <v>-2.383121976824496</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.542483874331064</v>
+        <v>-1.436098945961216</v>
       </c>
     </row>
     <row r="48">
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.743255286518599</v>
+        <v>1.827272291198044</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.068520167391721</v>
+        <v>2.723308876181066</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.724209830577903</v>
+        <v>1.802147820181194</v>
       </c>
     </row>
     <row r="49">
@@ -1356,10 +1356,10 @@
         <v>0.0698196985179356</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.04002000064705492</v>
+        <v>0.0400200006470551</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.04328813368011782</v>
+        <v>0.04328813368011807</v>
       </c>
     </row>
     <row r="50">
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.394009886281428</v>
+        <v>-0.4123080876934896</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2359920478561935</v>
+        <v>-0.2524057477321327</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2390771180188672</v>
+        <v>-0.2291487432295352</v>
       </c>
     </row>
     <row r="51">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8327465618405068</v>
+        <v>0.9094223729675006</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5112394051678407</v>
+        <v>0.4445292512630792</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3807404893962054</v>
+        <v>0.3896622241817392</v>
       </c>
     </row>
     <row r="52">
@@ -1411,10 +1411,10 @@
         <v>2.724977117688354</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>1.361436425828154</v>
+        <v>1.361436425828153</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2.039134278798833</v>
+        <v>2.03913427879883</v>
       </c>
     </row>
     <row r="53">
@@ -1425,13 +1425,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.819538398091522</v>
+        <v>1.863933696066095</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.1481381422560347</v>
+        <v>0.2131283384441587</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.3203915129366</v>
+        <v>1.267167320068687</v>
       </c>
     </row>
     <row r="54">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.714137547533146</v>
+        <v>3.63041971586481</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.481507046386657</v>
+        <v>2.427196522230945</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.842418809344029</v>
+        <v>2.806486059370398</v>
       </c>
     </row>
     <row r="55">
@@ -1462,10 +1462,10 @@
         <v>1.310761370565879</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.1984595189087758</v>
+        <v>0.1984595189087756</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.4510144657149754</v>
+        <v>0.4510144657149748</v>
       </c>
     </row>
     <row r="56">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.7371004417249477</v>
+        <v>0.7587993090203295</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.02481511281811856</v>
+        <v>0.03143603110211787</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2654050788017956</v>
+        <v>0.261637972793338</v>
       </c>
     </row>
     <row r="57">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>2.146731220943445</v>
+        <v>2.149763422569868</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.4028479597295896</v>
+        <v>0.3940239402589524</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.692904538116188</v>
+        <v>0.6872416640730296</v>
       </c>
     </row>
     <row r="58">
